--- a/data_preliminary_analysis.xlsx
+++ b/data_preliminary_analysis.xlsx
@@ -226,10 +226,10 @@
     <t xml:space="preserve">gradeABC</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 0 and 11. Not clear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 missings in the original dataset; 39 when merged with oxwaspLbw and 7 when merged also with oxwaspbp</t>
+    <t xml:space="preserve">Between 0 and 11. Sum of how many grades were at least C (&gt;= 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 missings in the original dataset; 39 when merged with oxwaspLbw and 7 when merged also with oxwaspbp. Might be useful considering the ratio of A,B,C over the total number of grades obtained.</t>
   </si>
 </sst>
 </file>
@@ -244,6 +244,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -265,6 +266,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -334,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,8 +373,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -455,16 +461,16 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,17 +1037,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="10" t="s">
         <v>69</v>
       </c>
     </row>

--- a/data_preliminary_analysis.xlsx
+++ b/data_preliminary_analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t xml:space="preserve">oxwaspLbw dataset (N = 182)</t>
   </si>
@@ -172,13 +172,16 @@
     <t xml:space="preserve">Number of scygrrettes smoke during gestation (1 = none, 2= &lt;10, 3= 10-19, 4 = &gt;=20)</t>
   </si>
   <si>
+    <t xml:space="preserve">3 of them can be imputed using educage/feg (maybe)</t>
+  </si>
+  <si>
     <t xml:space="preserve">socstat</t>
   </si>
   <si>
     <t xml:space="preserve">Socio-economic status (1=good, 5=bad)</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT the same missings as mcig</t>
+    <t xml:space="preserve">NOT the same missings as mcig. 6 of them can be imputed using educage/feg (maybe)</t>
   </si>
   <si>
     <t xml:space="preserve">oxwaspbp.csv (N = 166). When merged with oxwaspLbw N = 121</t>
@@ -461,16 +464,14 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.1785714285714"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,25 +729,27 @@
       <c r="C21" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,68 +864,68 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +953,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +981,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,21 +1037,21 @@
         <v>8</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="9" t="n">
         <v>39</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data_preliminary_analysis.xlsx
+++ b/data_preliminary_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SGA Preliminary Analysis" sheetId="1" state="visible" r:id="rId2"/>
@@ -269,7 +269,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +294,12 @@
         <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -336,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +373,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -458,19 +468,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.1785714285714"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,6 +657,7 @@
       <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
@@ -663,6 +672,7 @@
       <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
@@ -705,6 +715,7 @@
       <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
@@ -750,7 +761,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -1044,10 +1055,10 @@
       <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>69</v>
       </c>
     </row>
